--- a/testdata/adactindata.xlsx
+++ b/testdata/adactindata.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse\Adactin\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse\Adactinjn\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EE8B53-97A8-4E1B-B1A6-6ABBCB1EDECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2960B856-599F-4117-8B6F-7F10E2A93940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="2175" windowWidth="18000" windowHeight="10432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2175" yWindow="2175" windowWidth="18000" windowHeight="10432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hoteloptions" sheetId="1" r:id="rId1"/>
+    <sheet name="ordernos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Location</t>
   </si>
@@ -130,7 +131,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,18 +454,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.796875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.9296875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.3984375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.53125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.9296875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.796875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.9296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.3984375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.53125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.796875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.9296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -640,4 +642,22 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C2135E-454C-479D-A4A3-191798DE4D03}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>